--- a/Excel/Seno e coseno di un angolo.xlsx
+++ b/Excel/Seno e coseno di un angolo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrea/Sviluppo/Didattica/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21A4436-164C-7948-AC15-45D0DD27212E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C212F34-E382-2649-B90B-916528FCCB13}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{AD8AA60A-D90F-EA4C-B8BA-7B93E4094770}"/>
   </bookViews>
